--- a/Src/Data/Tables/CharacterDefine.xlsx
+++ b/Src/Data/Tables/CharacterDefine.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
-  <workbookPr updateLinks="always" codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\62411\Project\UnityProject\MyMmorpg\Src\Data\Tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B592EC-B23E-45A9-9CD0-11BF22F52937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="23040" windowHeight="13490" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="29175" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>TypeID</t>
   </si>
@@ -131,6 +125,9 @@
     <t>恶鬼</t>
   </si>
   <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
     <t>Monster/M1001</t>
   </si>
   <si>
@@ -140,21 +137,29 @@
     <t>Monster/M1002</t>
   </si>
   <si>
-    <t>看守</t>
+    <t>小恶魔</t>
   </si>
   <si>
     <t>Monster/M1003</t>
   </si>
   <si>
-    <t>MONSTER</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>死神</t>
+  </si>
+  <si>
+    <t>Monster/M1004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -179,10 +184,159 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +374,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -236,19 +390,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +400,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,12 +442,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -301,37 +630,279 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,93 +919,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="差 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+  <cellStyles count="59">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="常规 13" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="常规 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="常规 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="常规 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="好 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="适中 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="49"/>
+    <cellStyle name="差 2" xfId="50"/>
+    <cellStyle name="常规 11" xfId="51"/>
+    <cellStyle name="常规 13" xfId="52"/>
+    <cellStyle name="常规 2 2" xfId="53"/>
+    <cellStyle name="常规 3" xfId="54"/>
+    <cellStyle name="常规 7" xfId="55"/>
+    <cellStyle name="常规 8" xfId="56"/>
+    <cellStyle name="好 2" xfId="57"/>
+    <cellStyle name="适中 2" xfId="58"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -448,14 +1017,14 @@
     </dxf>
     <dxf>
       <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="9"/>
         <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -470,6 +1039,71 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -481,26 +1115,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:I9" totalsRowShown="0">
-  <autoFilter ref="A3:I9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I10" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:I10" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ConfigID" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Class" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Resource" dataDxfId="3"/>
-    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0000-000062000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="InitLevel" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Speed" dataDxfId="0"/>
+    <tableColumn id="1" name="Key" dataDxfId="0"/>
+    <tableColumn id="3" name="ConfigID" dataDxfId="1"/>
+    <tableColumn id="5" name="Name" dataDxfId="2"/>
+    <tableColumn id="4" name="Type" dataDxfId="3"/>
+    <tableColumn id="9" name="Class" dataDxfId="4"/>
+    <tableColumn id="2" name="Resource" dataDxfId="5"/>
+    <tableColumn id="98" name="Description" dataDxfId="6"/>
+    <tableColumn id="7" name="InitLevel" dataDxfId="7"/>
+    <tableColumn id="6" name="Speed" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -787,31 +1418,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.2666666666667" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="32.54296875" customWidth="1"/>
-    <col min="9" max="16384" width="16.26953125" style="3"/>
+    <col min="2" max="2" width="40.2666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5428571428571" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.8190476190476" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.8190476190476" style="2" customWidth="1"/>
+    <col min="7" max="8" width="32.5428571428571" customWidth="1"/>
+    <col min="9" max="16384" width="16.2666666666667" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -836,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -862,7 +1492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -887,11 +1517,11 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -920,7 +1550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -949,7 +1579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -978,7 +1608,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1001</v>
       </c>
@@ -991,11 +1621,11 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>37</v>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
@@ -1005,7 +1635,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>1002</v>
       </c>
@@ -1013,16 +1643,16 @@
         <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
@@ -1032,7 +1662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>1003</v>
       </c>
@@ -1040,16 +1670,16 @@
         <v>1003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
@@ -1059,10 +1689,37 @@
         <v>300</v>
       </c>
     </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
